--- a/CaptiveSeasons/CaptiveSeason_con_krusk_simper.xlsx
+++ b/CaptiveSeasons/CaptiveSeason_con_krusk_simper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Cecum_Microbes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Cecum_Microbes/CaptiveSeasons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A31D3473-6FC1-41F9-80C2-18F3B3142AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{A31D3473-6FC1-41F9-80C2-18F3B3142AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C39224-015B-45C7-A565-20A908654071}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView minimized="1" xWindow="348" yWindow="2820" windowWidth="10668" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaptiveSeason_con_krusk_simper" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1044,28 +1044,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>3.4204929684093001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>3.6965618477350899E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>5.9279044908024103E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>7.25730833716705E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>3.6965618477350899E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>1.51835116142737E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>1.33016106868196E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>1.51835116142737E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>0.206221417564454</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>2.0830979757626301E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>3.7522820814693298E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>1.51835116142737E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>1.33016106868196E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>3.47817245747803E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>0.15217581036528899</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1.40529487074497E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>3.6407597002477601E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>3.47817245747803E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>3.6407597002477601E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>5.0349658178250995E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>0.10802788029377799</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>1.3614914374795401E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>5.9279044908024103E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>3.6407597002477601E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>6.5294020048777907E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>1.15763390937132E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>1.3526862772863799E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>1.15763390937132E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0.12865999263557801</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>3.7356714596143002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>1.6587551046792701E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>3.6965618477350899E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>3.7348098524061298E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>3.11670667907664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>3.7348098524061298E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>3.11670667907664E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>5.8959092302222601E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>2.8121775050491401E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>6.2094289110178599E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>2.8472532615419498E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>9.7329346294701708E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>9.8517899151244707E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>1.33016106868196E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>6.2094289110178599E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>0.12865999263557801</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>4.8440269670233897E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>4.3994761403923803E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>4.0371218192096402E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>0.12865999263557801</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>2.8472532615419498E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>2.2443955829558999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>6.2094289110178599E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>0.118306383393231</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>3.2067547335468201E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>4.4680220601575997E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>3.8086544054620202E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>5.0555284767843101E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0.115256503182705</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>0.13361173921194799</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>3.5513889398305298E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>2.5818051061888398E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>0.15217581036528899</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>4.61734421786179E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>4.3994761403923803E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>8.6855063800326694E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>5.7343648183255699E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>2.6635461763684499E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>3.11670667907664E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>6.75168463508697E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>0.118306383393231</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>5.7943678536278E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>1.2475852833192001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>4.6872606141942302E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0.13361173921194799</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1.04348557580838E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>0.108900712034276</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>47</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>3.47817245747803E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>5.7943678536278E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>0.108900712034276</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>60</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>3.8086544054620202E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>5.0763069153830897E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>3.7348098524061298E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>5.0555284767843101E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>58</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>4.61734421786179E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>6.5294020048777907E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>58</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>4.6872606141942302E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>60</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>4.8332040949174999E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>2.8472532615419498E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>60</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>1.04348557580838E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>5.0555284767843101E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>3.0004954758001801E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>1.39586251017452E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>59</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>4.8332040949174999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>60</v>
       </c>
